--- a/biology/Médecine/Hémiballisme/Hémiballisme.xlsx
+++ b/biology/Médecine/Hémiballisme/Hémiballisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9miballisme</t>
+          <t>Hémiballisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémiballisme est un mouvement anormal involontaire, touchant préférentiellement la racine des membres, survenant brusquement et réalisant des mouvements de projection en avant avec enroulement.
 Il s'agit d'un ballisme lorsque l'atteinte touche les deux hémicorps et d'un monoballisme lorsqu'il ne concerne qu'un seul membre.
